--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>004025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>融通收益增强债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.54</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004025</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融通收益增强债券A</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004026</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通收益增强债券C</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005616</t>
+          <t>004026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方量化成长灵活配置混合</t>
+          <t>融通收益增强债券C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>003745</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>广发多元新兴股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>55.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.36</v>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.46</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1824,14 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1840,14 +1927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.36</v>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1856,13 +1965,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.720000000000001</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.46</v>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.68</v>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2505,14 +2592,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -2521,14 +2630,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.36</v>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2537,13 +2668,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8.720000000000001</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3.36</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2191,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +3002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2569,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
+++ b/数据整理/stocks/A股/深证主板/002324-普利特.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>3.28</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>8.720000000000001</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3.46</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3.36</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -616,7 +633,1561 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5953</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015113</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +2811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1638,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +3873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2832,7 +4403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3002,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3208,402 +4779,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001239</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长盛国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4857</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3523</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3393</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008638</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发科技创新混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3124</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510081</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛动态精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3109</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000598</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛生态环境主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1417</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000354</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛城镇化主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>